--- a/org_chart.xlsx
+++ b/org_chart.xlsx
@@ -2,11 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5240" yWindow="3230" windowWidth="19200" windowHeight="10060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="org_chart" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,13 +22,20 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
     <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <color rgb="FF0000FF"/>
+      <sz val="10"/>
       <u val="single"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color rgb="FF1155CC"/>
+      <sz val="10"/>
       <u val="single"/>
     </font>
   </fonts>
@@ -34,19 +44,23 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -55,6 +69,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -417,16 +432,16 @@
   </sheetPr>
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="36.43" customWidth="1" style="4" min="5" max="5"/>
+    <col width="36.453125" customWidth="1" style="4" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1" s="4">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>type</t>
@@ -453,7 +468,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1" s="4">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/170306-Org-Chart.pdf</t>
@@ -464,13 +479,9 @@
           <t>org_chart</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="4">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/181AttachmentD.pdf</t>
@@ -481,18 +492,14 @@
           <t>org_chart</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="C3" s="1" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>not sure what this is but definitely not org-chart</t>
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1" s="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/a.pdf</t>
@@ -504,7 +511,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ahs-org-orgchart (1).pdf</t>
@@ -516,7 +523,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1" s="4">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ahs-org-orgchart.pdf</t>
@@ -528,7 +535,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1" s="4">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/analytics-org-chart.pdf</t>
@@ -540,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1" s="4">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Appendix%20P-DL%20Org%20Chart%20&amp;%20Job%20Descriptions.pdf</t>
@@ -557,7 +564,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1" s="4">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Band%20Chart.pdf</t>
@@ -574,7 +581,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1" s="4">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/beefchart.pdf</t>
@@ -586,7 +593,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1" s="4">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/br_org_chart (1).pdf</t>
@@ -598,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1" s="4">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/br_org_chart.pdf</t>
@@ -610,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1" s="4">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ChartNo1.pdf</t>
@@ -622,7 +629,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1" s="4">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/chieforgchart.pdf</t>
@@ -634,7 +641,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1" s="4">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/CMS_Organizational_Chart.pdf</t>
@@ -646,7 +653,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1" s="4">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Commissioners-Org-Chart.pdf</t>
@@ -658,7 +665,7 @@
         </is>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/cot-orgchart (1).pdf</t>
@@ -670,7 +677,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1" s="4">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/cot-orgchart.pdf</t>
@@ -682,7 +689,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1" s="4">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/dcrorgchart.pdf</t>
@@ -694,7 +701,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1" s="4">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DDS_Org_Chart.pdf</t>
@@ -706,7 +713,7 @@
         </is>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="12.5" customHeight="1" s="4">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DirectorsOrgChart.pdf</t>
@@ -718,7 +725,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="12.5" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DOC%20ORG%20Chart%2004-13-21%20new (1).pdf</t>
@@ -735,7 +742,7 @@
         </is>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="12.5" customHeight="1" s="4">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DOC%20ORG%20Chart%2004-13-21%20new.pdf</t>
@@ -752,7 +759,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="12.5" customHeight="1" s="4">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/doh-orgchart.pdf</t>
@@ -764,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="12.5" customHeight="1" s="4">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/doit-org-chart.pdf</t>
@@ -776,7 +783,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="12.5" customHeight="1" s="4">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DOTOrgChart.pdf</t>
@@ -788,7 +795,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="12.5" customHeight="1" s="4">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/dotpf_org_chart (1).pdf</t>
@@ -800,7 +807,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="12.5" customHeight="1" s="4">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/dotpf_org_chart.pdf</t>
@@ -812,7 +819,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="12.5" customHeight="1" s="4">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DPPOrgChart.pdf</t>
@@ -824,7 +831,7 @@
         </is>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="12.5" customHeight="1" s="4">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DTS_Org_Change_Profile_Info_Chart.pdf</t>
@@ -836,7 +843,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="12.5" customHeight="1" s="4">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/eh.pdf</t>
@@ -848,7 +855,7 @@
         </is>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="12.5" customHeight="1" s="4">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ehs_org_chart.pdf</t>
@@ -860,7 +867,7 @@
         </is>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="12.5" customHeight="1" s="4">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/eichhorn-rlationship-chart.pdf</t>
@@ -872,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="12.5" customHeight="1" s="4">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Exec-Branch-Org-Chart-5.12.21.pdf</t>
@@ -884,7 +891,7 @@
         </is>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="12.5" customHeight="1" s="4">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/executive-leadership-org-chart.pdf</t>
@@ -896,7 +903,7 @@
         </is>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="12.5" customHeight="1" s="4">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Executive-Level-ORG-CHART.pdf</t>
@@ -908,7 +915,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="12.5" customHeight="1" s="4">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/exec_org_chart.pdf</t>
@@ -920,7 +927,7 @@
         </is>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="12.5" customHeight="1" s="4">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/FAA_Org_Chart.pdf</t>
@@ -932,7 +939,7 @@
         </is>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="12.5" customHeight="1" s="4">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/fas-leadership-team-org-chart (1).pdf</t>
@@ -944,7 +951,7 @@
         </is>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="12.5" customHeight="1" s="4">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/fas-leadership-team-org-chart.pdf</t>
@@ -956,7 +963,7 @@
         </is>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="12.5" customHeight="1" s="4">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/fbi.pdf</t>
@@ -968,7 +975,7 @@
         </is>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="12.5" customHeight="1" s="4">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/FDLE-Org-Chart.aspx.pdf</t>
@@ -980,7 +987,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="12.5" customHeight="1" s="4">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/FMD_Org_Chart_7-2020.pdf</t>
@@ -992,7 +999,7 @@
         </is>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="12.5" customHeight="1" s="4">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/fraction_conversion_chart.pdf</t>
@@ -1004,7 +1011,7 @@
         </is>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="12.5" customHeight="1" s="4">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/FS_Org_Chart_FSLB_and_DMs.pdf</t>
@@ -1016,7 +1023,7 @@
         </is>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="12.5" customHeight="1" s="4">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ftc_org_chart.pdf</t>
@@ -1028,7 +1035,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="12.5" customHeight="1" s="4">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/fwcorgchart.pdf</t>
@@ -1040,7 +1047,7 @@
         </is>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="12.5" customHeight="1" s="4">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/gao-org-chart.pdf</t>
@@ -1052,7 +1059,7 @@
         </is>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="12.5" customHeight="1" s="4">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/GeneralOrgChart.pdf</t>
@@ -1064,7 +1071,7 @@
         </is>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="12.5" customHeight="1" s="4">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/HR-Org-Chart-OAC.pdf</t>
@@ -1076,7 +1083,7 @@
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="12.5" customHeight="1" s="4">
       <c r="A51" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/hr-org-chart.pdf</t>
@@ -1088,7 +1095,7 @@
         </is>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="12.5" customHeight="1" s="4">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/IPA_Kiel_2015.pdf</t>
@@ -1100,7 +1107,7 @@
         </is>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="12.5" customHeight="1" s="4">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ISBE-Org-Chart (1).pdf</t>
@@ -1112,7 +1119,7 @@
         </is>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="12.5" customHeight="1" s="4">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ISBE-Org-Chart.pdf</t>
@@ -1124,7 +1131,7 @@
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="12.5" customHeight="1" s="4">
       <c r="A55" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/isdh-mgmt-org-chart.pdf</t>
@@ -1136,7 +1143,7 @@
         </is>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="12.5" customHeight="1" s="4">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/its-org-chart (1).pdf</t>
@@ -1148,7 +1155,7 @@
         </is>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="12.5" customHeight="1" s="4">
       <c r="A57" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/its-org-chart.pdf</t>
@@ -1160,7 +1167,7 @@
         </is>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="12.5" customHeight="1" s="4">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/its-orgchart (1).pdf</t>
@@ -1172,7 +1179,7 @@
         </is>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="12.5" customHeight="1" s="4">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/its-orgchart.pdf</t>
@@ -1184,7 +1191,7 @@
         </is>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="12.5" customHeight="1" s="4">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/JMCFY09Org%20Chart.pdf</t>
@@ -1201,7 +1208,7 @@
         </is>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="12.5" customHeight="1" s="4">
       <c r="A61" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/LAorgchart.pdf</t>
@@ -1213,7 +1220,7 @@
         </is>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="12.5" customHeight="1" s="4">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/lbiorgchart.pdf</t>
@@ -1225,7 +1232,7 @@
         </is>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="12.5" customHeight="1" s="4">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/lsu-org-chart-sept-01-2021.pdf</t>
@@ -1237,7 +1244,7 @@
         </is>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="12.5" customHeight="1" s="4">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/luorgchart.pdf</t>
@@ -1249,7 +1256,7 @@
         </is>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="12.5" customHeight="1" s="4">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/mdot%20org%20chart.pdf</t>
@@ -1266,7 +1273,7 @@
         </is>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="12.5" customHeight="1" s="4">
       <c r="A66" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/MDOTSHA_Org_Chart.pdf</t>
@@ -1278,7 +1285,7 @@
         </is>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="12.5" customHeight="1" s="4">
       <c r="A67" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Medicaid-OrgChart.pdf</t>
@@ -1290,7 +1297,7 @@
         </is>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="12.5" customHeight="1" s="4">
       <c r="A68" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/metro.pdf</t>
@@ -1302,7 +1309,7 @@
         </is>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="12.5" customHeight="1" s="4">
       <c r="A69" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/MGT-org-chart.pdf</t>
@@ -1314,7 +1321,7 @@
         </is>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="12.5" customHeight="1" s="4">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/NAVSUP-Org-Chart-May-2021 (1).pdf</t>
@@ -1326,7 +1333,7 @@
         </is>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="12.5" customHeight="1" s="4">
       <c r="A71" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/NAVSUP-Org-Chart-May-2021.pdf</t>
@@ -1338,7 +1345,7 @@
         </is>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="12.5" customHeight="1" s="4">
       <c r="A72" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/NLMorg_chart.pdf</t>
@@ -1350,7 +1357,7 @@
         </is>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="12.5" customHeight="1" s="4">
       <c r="A73" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/NOPOrgChart.pdf</t>
@@ -1362,7 +1369,7 @@
         </is>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="12.5" customHeight="1" s="4">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/NPS-Org-Chart (1).pdf</t>
@@ -1374,7 +1381,7 @@
         </is>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="12.5" customHeight="1" s="4">
       <c r="A75" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/NPS-Org-Chart.pdf</t>
@@ -1386,7 +1393,7 @@
         </is>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="12.5" customHeight="1" s="4">
       <c r="A76" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/NursingOrgChart.pdf</t>
@@ -1398,7 +1405,7 @@
         </is>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="12.5" customHeight="1" s="4">
       <c r="A77" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/nysed-org-chart.pdf</t>
@@ -1410,7 +1417,7 @@
         </is>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="12.5" customHeight="1" s="4">
       <c r="A78" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/oea-orgchart.pdf</t>
@@ -1422,7 +1429,7 @@
         </is>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="12.5" customHeight="1" s="4">
       <c r="A79" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/oia-org-chart.pdf</t>
@@ -1434,7 +1441,7 @@
         </is>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="12.5" customHeight="1" s="4">
       <c r="A80" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/omb_org_chart_0.pdf</t>
@@ -1446,7 +1453,7 @@
         </is>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="12.5" customHeight="1" s="4">
       <c r="A81" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/omh-orgchart.pdf</t>
@@ -1458,7 +1465,7 @@
         </is>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="12.5" customHeight="1" s="4">
       <c r="A82" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OMPP_Org_Chart.pdf</t>
@@ -1470,7 +1477,7 @@
         </is>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="12.5" customHeight="1" s="4">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/org-chart (1) (2).pdf</t>
@@ -1482,7 +1489,7 @@
         </is>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="12.5" customHeight="1" s="4">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/org-chart (1).pdf</t>
@@ -1494,7 +1501,7 @@
         </is>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="12.5" customHeight="1" s="4">
       <c r="A85" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Org-Chart-1.pdf</t>
@@ -1506,7 +1513,7 @@
         </is>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="12.5" customHeight="1" s="4">
       <c r="A86" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/org-chart-external.pdf</t>
@@ -1518,7 +1525,7 @@
         </is>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="12.5" customHeight="1" s="4">
       <c r="A87" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/org-chart-ice.pdf</t>
@@ -1530,7 +1537,7 @@
         </is>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="12.5" customHeight="1" s="4">
       <c r="A88" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/org-chart.pdf</t>
@@ -1542,7 +1549,7 @@
         </is>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="12.5" customHeight="1" s="4">
       <c r="A89" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Org-Chart_OSRS_With-Depts_2021_10_18.pdf</t>
@@ -1554,7 +1561,7 @@
         </is>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="12.5" customHeight="1" s="4">
       <c r="A90" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/organizational-chart.pdf</t>
@@ -1566,7 +1573,7 @@
         </is>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="12.5" customHeight="1" s="4">
       <c r="A91" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrganizationalChart.pdf</t>
@@ -1578,7 +1585,7 @@
         </is>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="12.5" customHeight="1" s="4">
       <c r="A92" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/organizational_chart.pdf</t>
@@ -1590,7 +1597,7 @@
         </is>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="12.5" customHeight="1" s="4">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17) (18) (19) (20) (21) (22) (23) (24).pdf</t>
@@ -1602,7 +1609,7 @@
         </is>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="12.5" customHeight="1" s="4">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17) (18) (19) (20) (21) (22) (23).pdf</t>
@@ -1614,7 +1621,7 @@
         </is>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="12.5" customHeight="1" s="4">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17) (18) (19) (20) (21) (22).pdf</t>
@@ -1626,7 +1633,7 @@
         </is>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="12.5" customHeight="1" s="4">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17) (18) (19) (20) (21).pdf</t>
@@ -1638,7 +1645,7 @@
         </is>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="12.5" customHeight="1" s="4">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17) (18) (19) (20).pdf</t>
@@ -1650,7 +1657,7 @@
         </is>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="12.5" customHeight="1" s="4">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgChart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17) (18) (19).pdf</t>
@@ -1662,7 +1669,7 @@
         </is>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="12.5" customHeight="1" s="4">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17) (18).pdf</t>
@@ -1674,7 +1681,7 @@
         </is>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="12.5" customHeight="1" s="4">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16) (17).pdf</t>
@@ -1686,7 +1693,7 @@
         </is>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="12.5" customHeight="1" s="4">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15) (16).pdf</t>
@@ -1698,7 +1705,7 @@
         </is>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="12.5" customHeight="1" s="4">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14) (15).pdf</t>
@@ -1710,7 +1717,7 @@
         </is>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="12.5" customHeight="1" s="4">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13) (14).pdf</t>
@@ -1722,7 +1729,7 @@
         </is>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="12.5" customHeight="1" s="4">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12) (13).pdf</t>
@@ -1734,7 +1741,7 @@
         </is>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="12.5" customHeight="1" s="4">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11) (12).pdf</t>
@@ -1746,7 +1753,7 @@
         </is>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="12.5" customHeight="1" s="4">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10) (11).pdf</t>
@@ -1758,7 +1765,7 @@
         </is>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="12.5" customHeight="1" s="4">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart (1) (2) (3) (4) (5) (6) (7) (8) (9) (10).pdf</t>
@@ -1770,7 +1777,7 @@
         </is>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="12.5" customHeight="1" s="4">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8) (9).pdf</t>
@@ -1782,7 +1789,7 @@
         </is>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="12.5" customHeight="1" s="4">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7) (8).pdf</t>
@@ -1794,7 +1801,7 @@
         </is>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="12.5" customHeight="1" s="4">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6) (7).pdf</t>
@@ -1806,7 +1813,7 @@
         </is>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="12.5" customHeight="1" s="4">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4) (5) (6).pdf</t>
@@ -1818,7 +1825,7 @@
         </is>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="12.5" customHeight="1" s="4">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart (1) (2) (3) (4) (5).pdf</t>
@@ -1830,7 +1837,7 @@
         </is>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="12.5" customHeight="1" s="4">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3) (4).pdf</t>
@@ -1842,7 +1849,7 @@
         </is>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="12.5" customHeight="1" s="4">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1) (2) (3).pdf</t>
@@ -1854,7 +1861,7 @@
         </is>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="12.5" customHeight="1" s="4">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart (1) (2).pdf</t>
@@ -1866,7 +1873,7 @@
         </is>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="12.5" customHeight="1" s="4">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart (1).pdf</t>
@@ -1878,7 +1885,7 @@
         </is>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="12.5" customHeight="1" s="4">
       <c r="A117" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart-a.pdf</t>
@@ -1890,7 +1897,7 @@
         </is>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="12.5" customHeight="1" s="4">
       <c r="A118" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/OrgChart-summer-fall-2021.pdf</t>
@@ -1902,7 +1909,7 @@
         </is>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="12.5" customHeight="1" s="4">
       <c r="A119" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchart.pdf</t>
@@ -1914,7 +1921,7 @@
         </is>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="12.5" customHeight="1" s="4">
       <c r="A120" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchartix.pdf</t>
@@ -1926,7 +1933,7 @@
         </is>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="12.5" customHeight="1" s="4">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchartoverview (1).pdf</t>
@@ -1938,7 +1945,7 @@
         </is>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="12.5" customHeight="1" s="4">
       <c r="A122" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchartoverview.pdf</t>
@@ -1950,7 +1957,7 @@
         </is>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="12.5" customHeight="1" s="4">
       <c r="A123" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/orgchartvi.pdf</t>
@@ -1962,7 +1969,7 @@
         </is>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="12.5" customHeight="1" s="4">
       <c r="A124" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/170306-Org-Chart.pdf</t>
@@ -1974,7 +1981,7 @@
         </is>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="12.5" customHeight="1" s="4">
       <c r="A125" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/181AttachmentD.pdf</t>
@@ -1986,7 +1993,7 @@
         </is>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="12.5" customHeight="1" s="4">
       <c r="A126" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/a.pdf</t>
@@ -1998,7 +2005,7 @@
         </is>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="12.5" customHeight="1" s="4">
       <c r="A127" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ahs-org-orgchart (1).pdf</t>
@@ -2010,7 +2017,7 @@
         </is>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="12.5" customHeight="1" s="4">
       <c r="A128" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ahs-org-orgchart.pdf</t>
@@ -2022,7 +2029,7 @@
         </is>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="12.5" customHeight="1" s="4">
       <c r="A129" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/analytics-org-chart.pdf</t>
@@ -2034,7 +2041,7 @@
         </is>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="12.5" customHeight="1" s="4">
       <c r="A130" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Appendix%20P-DL%20Org%20Chart%20&amp;%20Job%20Descriptions.pdf</t>
@@ -2051,7 +2058,7 @@
         </is>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="12.5" customHeight="1" s="4">
       <c r="A131" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Band%20Chart.pdf</t>
@@ -2068,7 +2075,7 @@
         </is>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="12.5" customHeight="1" s="4">
       <c r="A132" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/beefchart.pdf</t>
@@ -2080,7 +2087,7 @@
         </is>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="12.5" customHeight="1" s="4">
       <c r="A133" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/br_org_chart (1).pdf</t>
@@ -2092,7 +2099,7 @@
         </is>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="12.5" customHeight="1" s="4">
       <c r="A134" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/br_org_chart.pdf</t>
@@ -2104,7 +2111,7 @@
         </is>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="12.5" customHeight="1" s="4">
       <c r="A135" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ChartNo1.pdf</t>
@@ -2116,7 +2123,7 @@
         </is>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="12.5" customHeight="1" s="4">
       <c r="A136" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/chieforgchart.pdf</t>
@@ -2128,7 +2135,7 @@
         </is>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="12.5" customHeight="1" s="4">
       <c r="A137" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/CMS_Organizational_Chart.pdf</t>
@@ -2140,7 +2147,7 @@
         </is>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="12.5" customHeight="1" s="4">
       <c r="A138" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Commissioners-Org-Chart.pdf</t>
@@ -2152,7 +2159,7 @@
         </is>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="12.5" customHeight="1" s="4">
       <c r="A139" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/cot-orgchart (1).pdf</t>
@@ -2164,7 +2171,7 @@
         </is>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="12.5" customHeight="1" s="4">
       <c r="A140" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/cot-orgchart.pdf</t>
@@ -2176,7 +2183,7 @@
         </is>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="12.5" customHeight="1" s="4">
       <c r="A141" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/dcrorgchart.pdf</t>
@@ -2188,7 +2195,7 @@
         </is>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="12.5" customHeight="1" s="4">
       <c r="A142" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DDS_Org_Chart.pdf</t>
@@ -2200,7 +2207,7 @@
         </is>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="12.5" customHeight="1" s="4">
       <c r="A143" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DirectorsOrgChart.pdf</t>
@@ -2212,7 +2219,7 @@
         </is>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="12.5" customHeight="1" s="4">
       <c r="A144" s="3" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DOC%20ORG%20Chart%2004-13-21%20new (1).pdf</t>
@@ -2229,7 +2236,7 @@
         </is>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="12.5" customHeight="1" s="4">
       <c r="A145" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DOC%20ORG%20Chart%2004-13-21%20new.pdf</t>
@@ -2246,7 +2253,7 @@
         </is>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="12.5" customHeight="1" s="4">
       <c r="A146" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/doh-orgchart.pdf</t>
@@ -2258,7 +2265,7 @@
         </is>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="12.5" customHeight="1" s="4">
       <c r="A147" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/doit-org-chart.pdf</t>
@@ -2270,7 +2277,7 @@
         </is>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="12.5" customHeight="1" s="4">
       <c r="A148" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DOTOrgChart.pdf</t>
@@ -2282,7 +2289,7 @@
         </is>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="12.5" customHeight="1" s="4">
       <c r="A149" s="1" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/dotpf_org_chart (1).pdf</t>
@@ -2294,7 +2301,7 @@
         </is>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="12.5" customHeight="1" s="4">
       <c r="A150" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/dotpf_org_chart.pdf</t>
@@ -2306,7 +2313,7 @@
         </is>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="12.5" customHeight="1" s="4">
       <c r="A151" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DPPOrgChart.pdf</t>
@@ -2318,7 +2325,7 @@
         </is>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="12.5" customHeight="1" s="4">
       <c r="A152" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/DTS_Org_Change_Profile_Info_Chart.pdf</t>
@@ -2330,7 +2337,7 @@
         </is>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="12.5" customHeight="1" s="4">
       <c r="A153" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/eh.pdf</t>
@@ -2342,7 +2349,7 @@
         </is>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="12.5" customHeight="1" s="4">
       <c r="A154" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/ehs_org_chart.pdf</t>
@@ -2354,7 +2361,7 @@
         </is>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="12.5" customHeight="1" s="4">
       <c r="A155" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/eichhorn-rlationship-chart.pdf</t>
@@ -2366,7 +2373,7 @@
         </is>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="12.5" customHeight="1" s="4">
       <c r="A156" s="2" t="inlineStr">
         <is>
           <t>https://skysync-act-public.s3.us-east-2.amazonaws.com/documents/_documents_2/org_chart/Exec-Branch-Org-Chart-5.12.21.pdf</t>
